--- a/Data/NG_DWA_Sprint-I_19.xlsx
+++ b/Data/NG_DWA_Sprint-I_19.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DWASprint2023\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA_Sprint\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB168DB-7ED6-48CB-AA25-8A18B5D1DDB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,345 +63,6 @@
     <t>m</t>
   </si>
   <si>
-    <t>I_9_0001</t>
-  </si>
-  <si>
-    <t>I_9_0002</t>
-  </si>
-  <si>
-    <t>I_9_0003</t>
-  </si>
-  <si>
-    <t>I_9_0004</t>
-  </si>
-  <si>
-    <t>I_9_0005</t>
-  </si>
-  <si>
-    <t>I_9_0006</t>
-  </si>
-  <si>
-    <t>I_9_0007</t>
-  </si>
-  <si>
-    <t>I_9_0008</t>
-  </si>
-  <si>
-    <t>I_9_0009</t>
-  </si>
-  <si>
-    <t>I_9_0010</t>
-  </si>
-  <si>
-    <t>I_9_0011</t>
-  </si>
-  <si>
-    <t>I_9_0012</t>
-  </si>
-  <si>
-    <t>I_9_0013</t>
-  </si>
-  <si>
-    <t>I_9_0014</t>
-  </si>
-  <si>
-    <t>I_9_0015</t>
-  </si>
-  <si>
-    <t>I_9_0016</t>
-  </si>
-  <si>
-    <t>I_9_0017</t>
-  </si>
-  <si>
-    <t>I_9_0018</t>
-  </si>
-  <si>
-    <t>I_9_0019</t>
-  </si>
-  <si>
-    <t>I_9_0020</t>
-  </si>
-  <si>
-    <t>I_9_0021</t>
-  </si>
-  <si>
-    <t>I_9_0022</t>
-  </si>
-  <si>
-    <t>I_9_0023</t>
-  </si>
-  <si>
-    <t>I_9_0024</t>
-  </si>
-  <si>
-    <t>I_9_0025</t>
-  </si>
-  <si>
-    <t>I_9_0026</t>
-  </si>
-  <si>
-    <t>I_9_0027</t>
-  </si>
-  <si>
-    <t>I_9_0028</t>
-  </si>
-  <si>
-    <t>I_9_0029</t>
-  </si>
-  <si>
-    <t>I_9_0030</t>
-  </si>
-  <si>
-    <t>I_9_0031</t>
-  </si>
-  <si>
-    <t>I_9_0032</t>
-  </si>
-  <si>
-    <t>I_9_0033</t>
-  </si>
-  <si>
-    <t>I_9_0034</t>
-  </si>
-  <si>
-    <t>I_9_0035</t>
-  </si>
-  <si>
-    <t>I_9_0036</t>
-  </si>
-  <si>
-    <t>I_9_0037</t>
-  </si>
-  <si>
-    <t>I_9_0038</t>
-  </si>
-  <si>
-    <t>I_9_0039</t>
-  </si>
-  <si>
-    <t>I_9_0040</t>
-  </si>
-  <si>
-    <t>I_9_0041</t>
-  </si>
-  <si>
-    <t>I_9_0042</t>
-  </si>
-  <si>
-    <t>I_9_0043</t>
-  </si>
-  <si>
-    <t>I_9_0044</t>
-  </si>
-  <si>
-    <t>I_9_0045</t>
-  </si>
-  <si>
-    <t>I_9_0046</t>
-  </si>
-  <si>
-    <t>I_9_0047</t>
-  </si>
-  <si>
-    <t>I_9_0048</t>
-  </si>
-  <si>
-    <t>I_9_0049</t>
-  </si>
-  <si>
-    <t>I_9_0050</t>
-  </si>
-  <si>
-    <t>I_9_0051</t>
-  </si>
-  <si>
-    <t>I_9_0052</t>
-  </si>
-  <si>
-    <t>I_9_0053</t>
-  </si>
-  <si>
-    <t>I_9_0054</t>
-  </si>
-  <si>
-    <t>I_9_0055</t>
-  </si>
-  <si>
-    <t>I_9_0056</t>
-  </si>
-  <si>
-    <t>I_9_0057</t>
-  </si>
-  <si>
-    <t>I_9_0058</t>
-  </si>
-  <si>
-    <t>I_9_0059</t>
-  </si>
-  <si>
-    <t>I_9_0060</t>
-  </si>
-  <si>
-    <t>I_9_0061</t>
-  </si>
-  <si>
-    <t>I_9_0062</t>
-  </si>
-  <si>
-    <t>I_9_0063</t>
-  </si>
-  <si>
-    <t>I_9_0064</t>
-  </si>
-  <si>
-    <t>I_9_0065</t>
-  </si>
-  <si>
-    <t>I_9_0066</t>
-  </si>
-  <si>
-    <t>I_9_0067</t>
-  </si>
-  <si>
-    <t>I_9_0068</t>
-  </si>
-  <si>
-    <t>I_9_0069</t>
-  </si>
-  <si>
-    <t>I_9_0070</t>
-  </si>
-  <si>
-    <t>I_9_0071</t>
-  </si>
-  <si>
-    <t>I_9_0072</t>
-  </si>
-  <si>
-    <t>I_9_0073</t>
-  </si>
-  <si>
-    <t>I_9_0074</t>
-  </si>
-  <si>
-    <t>I_9_0075</t>
-  </si>
-  <si>
-    <t>I_9_0076</t>
-  </si>
-  <si>
-    <t>I_9_0077</t>
-  </si>
-  <si>
-    <t>I_9_0078</t>
-  </si>
-  <si>
-    <t>I_9_0079</t>
-  </si>
-  <si>
-    <t>I_9_0080</t>
-  </si>
-  <si>
-    <t>I_9_0081</t>
-  </si>
-  <si>
-    <t>I_9_0082</t>
-  </si>
-  <si>
-    <t>I_9_0083</t>
-  </si>
-  <si>
-    <t>I_9_0084</t>
-  </si>
-  <si>
-    <t>I_9_0085</t>
-  </si>
-  <si>
-    <t>I_9_0086</t>
-  </si>
-  <si>
-    <t>I_9_0087</t>
-  </si>
-  <si>
-    <t>I_9_0088</t>
-  </si>
-  <si>
-    <t>I_9_0089</t>
-  </si>
-  <si>
-    <t>I_9_0090</t>
-  </si>
-  <si>
-    <t>I_9_0091</t>
-  </si>
-  <si>
-    <t>I_9_0092</t>
-  </si>
-  <si>
-    <t>I_9_0093</t>
-  </si>
-  <si>
-    <t>I_9_0094</t>
-  </si>
-  <si>
-    <t>I_9_0095</t>
-  </si>
-  <si>
-    <t>I_9_0096</t>
-  </si>
-  <si>
-    <t>I_9_0097</t>
-  </si>
-  <si>
-    <t>I_9_0098</t>
-  </si>
-  <si>
-    <t>I_9_0099</t>
-  </si>
-  <si>
-    <t>I_9_0100</t>
-  </si>
-  <si>
-    <t>I_9_0101</t>
-  </si>
-  <si>
-    <t>I_9_0102</t>
-  </si>
-  <si>
-    <t>I_9_0103</t>
-  </si>
-  <si>
-    <t>I_9_0104</t>
-  </si>
-  <si>
-    <t>I_9_0105</t>
-  </si>
-  <si>
-    <t>I_9_0106</t>
-  </si>
-  <si>
-    <t>I_9_0107</t>
-  </si>
-  <si>
-    <t>I_9_0108</t>
-  </si>
-  <si>
-    <t>I_9_0109</t>
-  </si>
-  <si>
-    <t>I_9_0110</t>
-  </si>
-  <si>
-    <t>I_9_0111</t>
-  </si>
-  <si>
-    <t>I_9_0112</t>
-  </si>
-  <si>
-    <t>I_9_0113</t>
-  </si>
-  <si>
     <t>Rütenbrock</t>
   </si>
   <si>
@@ -783,12 +445,351 @@
   </si>
   <si>
     <t>Wardböhmen</t>
+  </si>
+  <si>
+    <t>I_19_0001</t>
+  </si>
+  <si>
+    <t>I_19_0002</t>
+  </si>
+  <si>
+    <t>I_19_0003</t>
+  </si>
+  <si>
+    <t>I_19_0004</t>
+  </si>
+  <si>
+    <t>I_19_0005</t>
+  </si>
+  <si>
+    <t>I_19_0006</t>
+  </si>
+  <si>
+    <t>I_19_0007</t>
+  </si>
+  <si>
+    <t>I_19_0008</t>
+  </si>
+  <si>
+    <t>I_19_0009</t>
+  </si>
+  <si>
+    <t>I_19_0010</t>
+  </si>
+  <si>
+    <t>I_19_0011</t>
+  </si>
+  <si>
+    <t>I_19_0012</t>
+  </si>
+  <si>
+    <t>I_19_0013</t>
+  </si>
+  <si>
+    <t>I_19_0014</t>
+  </si>
+  <si>
+    <t>I_19_0015</t>
+  </si>
+  <si>
+    <t>I_19_0016</t>
+  </si>
+  <si>
+    <t>I_19_0017</t>
+  </si>
+  <si>
+    <t>I_19_0018</t>
+  </si>
+  <si>
+    <t>I_19_0019</t>
+  </si>
+  <si>
+    <t>I_19_0020</t>
+  </si>
+  <si>
+    <t>I_19_0021</t>
+  </si>
+  <si>
+    <t>I_19_0022</t>
+  </si>
+  <si>
+    <t>I_19_0023</t>
+  </si>
+  <si>
+    <t>I_19_0024</t>
+  </si>
+  <si>
+    <t>I_19_0025</t>
+  </si>
+  <si>
+    <t>I_19_0026</t>
+  </si>
+  <si>
+    <t>I_19_0027</t>
+  </si>
+  <si>
+    <t>I_19_0028</t>
+  </si>
+  <si>
+    <t>I_19_0029</t>
+  </si>
+  <si>
+    <t>I_19_0030</t>
+  </si>
+  <si>
+    <t>I_19_0031</t>
+  </si>
+  <si>
+    <t>I_19_0032</t>
+  </si>
+  <si>
+    <t>I_19_0033</t>
+  </si>
+  <si>
+    <t>I_19_0034</t>
+  </si>
+  <si>
+    <t>I_19_0035</t>
+  </si>
+  <si>
+    <t>I_19_0036</t>
+  </si>
+  <si>
+    <t>I_19_0037</t>
+  </si>
+  <si>
+    <t>I_19_0038</t>
+  </si>
+  <si>
+    <t>I_19_0039</t>
+  </si>
+  <si>
+    <t>I_19_0040</t>
+  </si>
+  <si>
+    <t>I_19_0041</t>
+  </si>
+  <si>
+    <t>I_19_0042</t>
+  </si>
+  <si>
+    <t>I_19_0043</t>
+  </si>
+  <si>
+    <t>I_19_0044</t>
+  </si>
+  <si>
+    <t>I_19_0045</t>
+  </si>
+  <si>
+    <t>I_19_0046</t>
+  </si>
+  <si>
+    <t>I_19_0047</t>
+  </si>
+  <si>
+    <t>I_19_0048</t>
+  </si>
+  <si>
+    <t>I_19_0049</t>
+  </si>
+  <si>
+    <t>I_19_0050</t>
+  </si>
+  <si>
+    <t>I_19_0051</t>
+  </si>
+  <si>
+    <t>I_19_0052</t>
+  </si>
+  <si>
+    <t>I_19_0053</t>
+  </si>
+  <si>
+    <t>I_19_0054</t>
+  </si>
+  <si>
+    <t>I_19_0055</t>
+  </si>
+  <si>
+    <t>I_19_0056</t>
+  </si>
+  <si>
+    <t>I_19_0057</t>
+  </si>
+  <si>
+    <t>I_19_0058</t>
+  </si>
+  <si>
+    <t>I_19_0059</t>
+  </si>
+  <si>
+    <t>I_19_0060</t>
+  </si>
+  <si>
+    <t>I_19_0061</t>
+  </si>
+  <si>
+    <t>I_19_0062</t>
+  </si>
+  <si>
+    <t>I_19_0063</t>
+  </si>
+  <si>
+    <t>I_19_0064</t>
+  </si>
+  <si>
+    <t>I_19_0065</t>
+  </si>
+  <si>
+    <t>I_19_0066</t>
+  </si>
+  <si>
+    <t>I_19_0067</t>
+  </si>
+  <si>
+    <t>I_19_0068</t>
+  </si>
+  <si>
+    <t>I_19_0069</t>
+  </si>
+  <si>
+    <t>I_19_0070</t>
+  </si>
+  <si>
+    <t>I_19_0071</t>
+  </si>
+  <si>
+    <t>I_19_0072</t>
+  </si>
+  <si>
+    <t>I_19_0073</t>
+  </si>
+  <si>
+    <t>I_19_0074</t>
+  </si>
+  <si>
+    <t>I_19_0075</t>
+  </si>
+  <si>
+    <t>I_19_0076</t>
+  </si>
+  <si>
+    <t>I_19_0077</t>
+  </si>
+  <si>
+    <t>I_19_0078</t>
+  </si>
+  <si>
+    <t>I_19_0079</t>
+  </si>
+  <si>
+    <t>I_19_0080</t>
+  </si>
+  <si>
+    <t>I_19_0081</t>
+  </si>
+  <si>
+    <t>I_19_0082</t>
+  </si>
+  <si>
+    <t>I_19_0083</t>
+  </si>
+  <si>
+    <t>I_19_0084</t>
+  </si>
+  <si>
+    <t>I_19_0085</t>
+  </si>
+  <si>
+    <t>I_19_0086</t>
+  </si>
+  <si>
+    <t>I_19_0087</t>
+  </si>
+  <si>
+    <t>I_19_0088</t>
+  </si>
+  <si>
+    <t>I_19_0089</t>
+  </si>
+  <si>
+    <t>I_19_0090</t>
+  </si>
+  <si>
+    <t>I_19_0091</t>
+  </si>
+  <si>
+    <t>I_19_0092</t>
+  </si>
+  <si>
+    <t>I_19_0093</t>
+  </si>
+  <si>
+    <t>I_19_0094</t>
+  </si>
+  <si>
+    <t>I_19_0095</t>
+  </si>
+  <si>
+    <t>I_19_0096</t>
+  </si>
+  <si>
+    <t>I_19_0097</t>
+  </si>
+  <si>
+    <t>I_19_0098</t>
+  </si>
+  <si>
+    <t>I_19_0099</t>
+  </si>
+  <si>
+    <t>I_19_0100</t>
+  </si>
+  <si>
+    <t>I_19_0101</t>
+  </si>
+  <si>
+    <t>I_19_0102</t>
+  </si>
+  <si>
+    <t>I_19_0103</t>
+  </si>
+  <si>
+    <t>I_19_0104</t>
+  </si>
+  <si>
+    <t>I_19_0105</t>
+  </si>
+  <si>
+    <t>I_19_0106</t>
+  </si>
+  <si>
+    <t>I_19_0107</t>
+  </si>
+  <si>
+    <t>I_19_0108</t>
+  </si>
+  <si>
+    <t>I_19_0109</t>
+  </si>
+  <si>
+    <t>I_19_0110</t>
+  </si>
+  <si>
+    <t>I_19_0111</t>
+  </si>
+  <si>
+    <t>I_19_0112</t>
+  </si>
+  <si>
+    <t>I_19_0113</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -841,7 +842,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1152,14 +1153,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="N115" sqref="N115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
@@ -1214,16 +1215,16 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>125</v>
-      </c>
       <c r="H2" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1240,16 +1241,16 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1266,16 +1267,16 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1292,16 +1293,16 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1318,16 +1319,16 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="F6" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1344,19 +1345,19 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1373,16 +1374,16 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1399,16 +1400,16 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="F9" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1425,16 +1426,16 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="F10" t="s">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1451,16 +1452,16 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1477,16 +1478,16 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1503,16 +1504,16 @@
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="I13" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1529,16 +1530,16 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="H14" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1555,16 +1556,16 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="I15" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1581,16 +1582,16 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="F16" t="s">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1607,16 +1608,16 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="I17" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1633,16 +1634,16 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1659,19 +1660,19 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="F19" t="s">
-        <v>147</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="I19" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1688,16 +1689,16 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="F20" t="s">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="H20" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="I20" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1714,16 +1715,16 @@
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="F21" t="s">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="H21" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="I21" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1740,16 +1741,16 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="F22" t="s">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="I22" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1766,16 +1767,16 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="F23" t="s">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="H23" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="I23" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1792,16 +1793,16 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="F24" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="I24" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1818,16 +1819,16 @@
         <v>4</v>
       </c>
       <c r="E25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" t="s">
         <v>35</v>
       </c>
-      <c r="F25" t="s">
-        <v>156</v>
-      </c>
-      <c r="H25" t="s">
-        <v>148</v>
-      </c>
       <c r="I25" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1844,16 +1845,16 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" t="s">
         <v>36</v>
-      </c>
-      <c r="F26" t="s">
-        <v>157</v>
-      </c>
-      <c r="H26" t="s">
-        <v>148</v>
-      </c>
-      <c r="I26" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1870,16 +1871,16 @@
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="F27" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="I27" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1896,16 +1897,16 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="F28" t="s">
-        <v>159</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="I28" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1922,16 +1923,16 @@
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="F29" t="s">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="I29" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1948,16 +1949,16 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="F30" t="s">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="I30" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1974,16 +1975,16 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="F31" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="I31" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2000,16 +2001,16 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="F32" t="s">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="I32" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2026,16 +2027,16 @@
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="F33" t="s">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="I33" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2052,16 +2053,16 @@
         <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="F34" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="H34" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="I34" t="s">
-        <v>166</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2078,13 +2079,13 @@
         <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="F35" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="H35" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="I35">
         <v>999</v>
@@ -2104,16 +2105,16 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="F36" t="s">
-        <v>167</v>
+        <v>54</v>
       </c>
       <c r="H36" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="I36" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2130,16 +2131,16 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="F37" t="s">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="H37" t="s">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="I37" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2156,16 +2157,16 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="F38" t="s">
-        <v>170</v>
+        <v>57</v>
       </c>
       <c r="H38" t="s">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="I38" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2182,16 +2183,16 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c r="F39" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="H39" t="s">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="I39" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2208,16 +2209,16 @@
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="F40" t="s">
-        <v>172</v>
+        <v>59</v>
       </c>
       <c r="H40" t="s">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="I40" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2234,13 +2235,13 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="F41" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="H41" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
       <c r="I41">
         <v>999</v>
@@ -2260,16 +2261,16 @@
         <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="F42" t="s">
-        <v>174</v>
+        <v>61</v>
       </c>
       <c r="H42" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="I42" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2286,16 +2287,16 @@
         <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="F43" t="s">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="H43" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="I43" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2312,19 +2313,19 @@
         <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>54</v>
+        <v>182</v>
       </c>
       <c r="F44" t="s">
-        <v>177</v>
+        <v>64</v>
       </c>
       <c r="G44" t="s">
-        <v>178</v>
+        <v>65</v>
       </c>
       <c r="H44" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
       <c r="I44" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2341,16 +2342,16 @@
         <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>55</v>
+        <v>183</v>
       </c>
       <c r="F45" t="s">
-        <v>179</v>
+        <v>66</v>
       </c>
       <c r="H45" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
       <c r="I45" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2367,16 +2368,16 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="F46" t="s">
-        <v>180</v>
+        <v>67</v>
       </c>
       <c r="H46" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="I46" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2393,16 +2394,16 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>57</v>
+        <v>185</v>
       </c>
       <c r="F47" t="s">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="H47" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="I47" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2419,16 +2420,16 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>58</v>
+        <v>186</v>
       </c>
       <c r="F48" t="s">
-        <v>182</v>
+        <v>69</v>
       </c>
       <c r="H48" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="I48" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2445,16 +2446,16 @@
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>59</v>
+        <v>187</v>
       </c>
       <c r="F49" t="s">
-        <v>183</v>
+        <v>70</v>
       </c>
       <c r="H49" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="I49" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2471,16 +2472,16 @@
         <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="F50" t="s">
-        <v>184</v>
+        <v>71</v>
       </c>
       <c r="H50" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="I50" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2497,16 +2498,16 @@
         <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="F51" t="s">
-        <v>185</v>
+        <v>72</v>
       </c>
       <c r="H51" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="I51" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2523,16 +2524,16 @@
         <v>6</v>
       </c>
       <c r="E52" t="s">
+        <v>190</v>
+      </c>
+      <c r="F52" t="s">
+        <v>73</v>
+      </c>
+      <c r="H52" t="s">
         <v>62</v>
       </c>
-      <c r="F52" t="s">
-        <v>186</v>
-      </c>
-      <c r="H52" t="s">
-        <v>175</v>
-      </c>
       <c r="I52" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2549,16 +2550,16 @@
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>63</v>
+        <v>191</v>
       </c>
       <c r="F53" t="s">
-        <v>187</v>
+        <v>74</v>
       </c>
       <c r="H53" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="I53" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2575,16 +2576,16 @@
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="F54" t="s">
-        <v>188</v>
+        <v>75</v>
       </c>
       <c r="H54" t="s">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="I54" t="s">
-        <v>190</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2601,16 +2602,16 @@
         <v>4</v>
       </c>
       <c r="E55" t="s">
-        <v>65</v>
+        <v>193</v>
       </c>
       <c r="F55" t="s">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="I55" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2627,16 +2628,16 @@
         <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>66</v>
+        <v>194</v>
       </c>
       <c r="F56" t="s">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="I56" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2653,16 +2654,16 @@
         <v>6</v>
       </c>
       <c r="E57" t="s">
-        <v>67</v>
+        <v>195</v>
       </c>
       <c r="F57" t="s">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="I57" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2679,16 +2680,16 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>68</v>
+        <v>196</v>
       </c>
       <c r="F58" t="s">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="H58" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="I58" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2705,16 +2706,16 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="F59" t="s">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="H59" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="I59" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2731,16 +2732,16 @@
         <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
       <c r="F60" t="s">
-        <v>196</v>
+        <v>83</v>
       </c>
       <c r="H60" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="I60" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2757,16 +2758,16 @@
         <v>5</v>
       </c>
       <c r="E61" t="s">
-        <v>71</v>
+        <v>199</v>
       </c>
       <c r="F61" t="s">
-        <v>197</v>
+        <v>84</v>
       </c>
       <c r="H61" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="I61" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2783,16 +2784,16 @@
         <v>6</v>
       </c>
       <c r="E62" t="s">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="F62" t="s">
-        <v>198</v>
+        <v>85</v>
       </c>
       <c r="H62" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="I62" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2809,16 +2810,16 @@
         <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="F63" t="s">
-        <v>199</v>
+        <v>86</v>
       </c>
       <c r="H63" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="I63" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2835,16 +2836,16 @@
         <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="F64" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="H64" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="I64" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -2861,16 +2862,16 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="F65" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c r="I65" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -2887,16 +2888,16 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="F66" t="s">
-        <v>203</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="I66" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -2913,16 +2914,16 @@
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="F67" t="s">
-        <v>204</v>
+        <v>91</v>
       </c>
       <c r="H67" t="s">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c r="I67" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -2939,16 +2940,16 @@
         <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="F68" t="s">
-        <v>205</v>
+        <v>92</v>
       </c>
       <c r="H68" t="s">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c r="I68" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -2965,16 +2966,16 @@
         <v>5</v>
       </c>
       <c r="E69" t="s">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="F69" t="s">
-        <v>206</v>
+        <v>93</v>
       </c>
       <c r="H69" t="s">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c r="I69" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -2991,16 +2992,16 @@
         <v>6</v>
       </c>
       <c r="E70" t="s">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="F70" t="s">
-        <v>207</v>
+        <v>94</v>
       </c>
       <c r="H70" t="s">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c r="I70" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -3017,19 +3018,19 @@
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="F71" t="s">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c r="H71" t="s">
-        <v>209</v>
+        <v>96</v>
       </c>
       <c r="I71" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="J71" t="s">
-        <v>210</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -3046,16 +3047,16 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="F72" t="s">
-        <v>211</v>
+        <v>98</v>
       </c>
       <c r="H72" t="s">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c r="I72" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -3072,16 +3073,16 @@
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>83</v>
+        <v>211</v>
       </c>
       <c r="F73" t="s">
-        <v>212</v>
+        <v>99</v>
       </c>
       <c r="H73" t="s">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c r="I73" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -3098,16 +3099,16 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>84</v>
+        <v>212</v>
       </c>
       <c r="F74" t="s">
-        <v>213</v>
+        <v>100</v>
       </c>
       <c r="H74" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="I74" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -3124,16 +3125,16 @@
         <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="F75" t="s">
-        <v>215</v>
+        <v>102</v>
       </c>
       <c r="H75" t="s">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c r="I75" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -3150,16 +3151,16 @@
         <v>6</v>
       </c>
       <c r="E76" t="s">
-        <v>86</v>
+        <v>214</v>
       </c>
       <c r="F76" t="s">
-        <v>216</v>
+        <v>103</v>
       </c>
       <c r="H76" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="I76" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -3176,16 +3177,16 @@
         <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="F77" t="s">
-        <v>217</v>
+        <v>104</v>
       </c>
       <c r="H77" t="s">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c r="I77" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -3202,16 +3203,16 @@
         <v>8</v>
       </c>
       <c r="E78" t="s">
-        <v>88</v>
+        <v>216</v>
       </c>
       <c r="F78" t="s">
-        <v>218</v>
+        <v>105</v>
       </c>
       <c r="H78" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="I78" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -3228,16 +3229,16 @@
         <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>89</v>
+        <v>217</v>
       </c>
       <c r="F79" t="s">
-        <v>219</v>
+        <v>106</v>
       </c>
       <c r="H79" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="I79" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -3254,19 +3255,19 @@
         <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>90</v>
+        <v>218</v>
       </c>
       <c r="F80" t="s">
-        <v>220</v>
+        <v>107</v>
       </c>
       <c r="G80" t="s">
-        <v>215</v>
+        <v>102</v>
       </c>
       <c r="H80" t="s">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c r="I80" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -3283,16 +3284,16 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>91</v>
+        <v>219</v>
       </c>
       <c r="F81" t="s">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="H81" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="I81" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -3309,16 +3310,16 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>92</v>
+        <v>220</v>
       </c>
       <c r="F82" t="s">
-        <v>222</v>
+        <v>109</v>
       </c>
       <c r="H82" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="I82" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3335,16 +3336,16 @@
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>93</v>
+        <v>221</v>
       </c>
       <c r="F83" t="s">
-        <v>222</v>
+        <v>109</v>
       </c>
       <c r="H83" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="I83" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -3361,16 +3362,16 @@
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>94</v>
+        <v>222</v>
       </c>
       <c r="F84" t="s">
-        <v>223</v>
+        <v>110</v>
       </c>
       <c r="H84" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="I84" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3387,16 +3388,16 @@
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="F85" t="s">
-        <v>223</v>
+        <v>110</v>
       </c>
       <c r="H85" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="I85" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -3413,16 +3414,16 @@
         <v>4</v>
       </c>
       <c r="E86" t="s">
-        <v>96</v>
+        <v>224</v>
       </c>
       <c r="F86" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
       <c r="H86" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="I86" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3439,16 +3440,16 @@
         <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>97</v>
+        <v>225</v>
       </c>
       <c r="F87" t="s">
-        <v>225</v>
+        <v>112</v>
       </c>
       <c r="H87" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="I87" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3465,16 +3466,16 @@
         <v>6</v>
       </c>
       <c r="E88" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="F88" t="s">
-        <v>226</v>
+        <v>113</v>
       </c>
       <c r="H88" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="I88" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3491,16 +3492,16 @@
         <v>7</v>
       </c>
       <c r="E89" t="s">
-        <v>99</v>
+        <v>227</v>
       </c>
       <c r="F89" t="s">
-        <v>249</v>
+        <v>136</v>
       </c>
       <c r="H89" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="I89" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3517,16 +3518,16 @@
         <v>7</v>
       </c>
       <c r="E90" t="s">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="F90" t="s">
-        <v>249</v>
+        <v>136</v>
       </c>
       <c r="H90" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="I90" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -3543,16 +3544,16 @@
         <v>8</v>
       </c>
       <c r="E91" t="s">
-        <v>101</v>
+        <v>229</v>
       </c>
       <c r="F91">
         <v>888</v>
       </c>
       <c r="H91" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="I91" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -3569,16 +3570,16 @@
         <v>9</v>
       </c>
       <c r="E92" t="s">
-        <v>102</v>
+        <v>230</v>
       </c>
       <c r="F92" t="s">
-        <v>227</v>
+        <v>114</v>
       </c>
       <c r="H92" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="I92" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -3595,16 +3596,16 @@
         <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>103</v>
+        <v>231</v>
       </c>
       <c r="F93" t="s">
-        <v>228</v>
+        <v>115</v>
       </c>
       <c r="H93" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="I93" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -3621,16 +3622,16 @@
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>104</v>
+        <v>232</v>
       </c>
       <c r="F94" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="H94" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="I94" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -3647,16 +3648,16 @@
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>105</v>
+        <v>233</v>
       </c>
       <c r="F95" t="s">
-        <v>230</v>
+        <v>117</v>
       </c>
       <c r="H95" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="I95" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -3673,16 +3674,16 @@
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>106</v>
+        <v>234</v>
       </c>
       <c r="F96" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="H96" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="I96" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -3699,16 +3700,16 @@
         <v>4</v>
       </c>
       <c r="E97" t="s">
-        <v>107</v>
+        <v>235</v>
       </c>
       <c r="F97" t="s">
-        <v>250</v>
+        <v>137</v>
       </c>
       <c r="H97" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="I97" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -3725,19 +3726,19 @@
         <v>5</v>
       </c>
       <c r="E98" t="s">
-        <v>108</v>
+        <v>236</v>
       </c>
       <c r="F98" t="s">
-        <v>231</v>
+        <v>118</v>
       </c>
       <c r="H98" t="s">
-        <v>232</v>
+        <v>119</v>
       </c>
       <c r="I98" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="J98" t="s">
-        <v>233</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -3754,16 +3755,16 @@
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>109</v>
+        <v>237</v>
       </c>
       <c r="F99" t="s">
-        <v>251</v>
+        <v>138</v>
       </c>
       <c r="H99" t="s">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="I99" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -3780,16 +3781,16 @@
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>110</v>
+        <v>238</v>
       </c>
       <c r="F100" t="s">
-        <v>252</v>
+        <v>139</v>
       </c>
       <c r="H100" t="s">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="I100" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -3806,16 +3807,16 @@
         <v>4</v>
       </c>
       <c r="E101" t="s">
-        <v>111</v>
+        <v>239</v>
       </c>
       <c r="F101" t="s">
-        <v>235</v>
+        <v>122</v>
       </c>
       <c r="H101" t="s">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="I101" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -3832,16 +3833,16 @@
         <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>112</v>
+        <v>240</v>
       </c>
       <c r="F102" t="s">
-        <v>236</v>
+        <v>123</v>
       </c>
       <c r="H102" t="s">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="I102" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -3858,16 +3859,16 @@
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>113</v>
+        <v>241</v>
       </c>
       <c r="F103" t="s">
-        <v>237</v>
+        <v>124</v>
       </c>
       <c r="H103" t="s">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="I103" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -3884,16 +3885,16 @@
         <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>114</v>
+        <v>242</v>
       </c>
       <c r="F104" t="s">
-        <v>238</v>
+        <v>125</v>
       </c>
       <c r="H104" t="s">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="I104" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -3910,19 +3911,19 @@
         <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>115</v>
+        <v>243</v>
       </c>
       <c r="F105" t="s">
-        <v>239</v>
+        <v>126</v>
       </c>
       <c r="H105" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="I105" t="s">
+        <v>14</v>
+      </c>
+      <c r="J105" t="s">
         <v>127</v>
-      </c>
-      <c r="J105" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -3939,16 +3940,16 @@
         <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>116</v>
+        <v>244</v>
       </c>
       <c r="F106" t="s">
-        <v>241</v>
+        <v>128</v>
       </c>
       <c r="H106" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="I106" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -3965,16 +3966,16 @@
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>117</v>
+        <v>245</v>
       </c>
       <c r="F107" t="s">
-        <v>242</v>
+        <v>129</v>
       </c>
       <c r="H107" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="I107" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -3991,16 +3992,16 @@
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>118</v>
+        <v>246</v>
       </c>
       <c r="F108" t="s">
-        <v>243</v>
+        <v>130</v>
       </c>
       <c r="H108" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="I108" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -4017,16 +4018,16 @@
         <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>119</v>
+        <v>247</v>
       </c>
       <c r="F109" t="s">
-        <v>244</v>
+        <v>131</v>
       </c>
       <c r="H109" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
       <c r="I109" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -4043,16 +4044,16 @@
         <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>120</v>
+        <v>248</v>
       </c>
       <c r="F110" t="s">
-        <v>245</v>
+        <v>132</v>
       </c>
       <c r="H110" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="I110" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -4069,16 +4070,16 @@
         <v>1</v>
       </c>
       <c r="E111" t="s">
-        <v>121</v>
+        <v>249</v>
       </c>
       <c r="F111" t="s">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="H111" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="I111" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -4095,16 +4096,16 @@
         <v>3</v>
       </c>
       <c r="E112" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="F112" t="s">
-        <v>246</v>
+        <v>133</v>
       </c>
       <c r="H112" t="s">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c r="I112" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4121,16 +4122,16 @@
         <v>4</v>
       </c>
       <c r="E113" t="s">
-        <v>123</v>
+        <v>251</v>
       </c>
       <c r="F113" t="s">
-        <v>247</v>
+        <v>134</v>
       </c>
       <c r="H113" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="I113" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4147,16 +4148,16 @@
         <v>2</v>
       </c>
       <c r="E114" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="F114" t="s">
-        <v>248</v>
+        <v>135</v>
       </c>
       <c r="H114" t="s">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="I114" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
